--- a/biology/Botanique/Sapote/Sapote.xlsx
+++ b/biology/Botanique/Sapote/Sapote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sapote mamey
 La sapote ou sapote mamey est le fruit comestible du sapotier (Pouteria sapota).
@@ -513,7 +525,9 @@
           <t>Autres sapotes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sapote blanche, ou pommier mexicain, est le fruit d'une rutacée, Casimiroa edulis. La sapote noire est le fruit d'une ébénacée, Diospyros digyna, comme le kaki.
 Elles ne sont pas biologiquement apparentées à la sapote, ni entre elles.
